--- a/TODOLIST.xlsx
+++ b/TODOLIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brice\git\BFMM_SaveTheKoalas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HES\Semestre 4\RIA\Projet\BFMM_SaveTheKoalas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512FC186-1B31-4A41-A538-2012B65A93BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7FA0B3-F88E-45CC-84DD-6D7A3DA35DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -556,19 +556,19 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="5" width="13.54296875" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -578,7 +578,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -618,7 +618,7 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -655,7 +655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -671,7 +671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -687,7 +687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -699,11 +699,11 @@
         <v>10</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>7</v>
       </c>

--- a/TODOLIST.xlsx
+++ b/TODOLIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HES\Semestre 4\RIA\Projet\BFMM_SaveTheKoalas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7FA0B3-F88E-45CC-84DD-6D7A3DA35DF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24E364C-82E4-484F-B387-7460E1B0470F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>Optionnels:</t>
   </si>
   <si>
-    <t>Musique/bruitage</t>
-  </si>
-  <si>
     <t>Gestion du temps
 - Temps et sauvegarde</t>
   </si>
@@ -111,6 +108,9 @@
     <t>Niveaux
 - Gestion des niveaux (1 fichier texte par niveau)
 - Gestion de l'artchitecture des niveaux</t>
+  </si>
+  <si>
+    <t>Musique/bruitage (bruit de l'hélico qui marchait pas et bruit de mort et de victoires qui passent en boucle)</t>
   </si>
 </sst>
 </file>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,7 +611,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>17</v>
@@ -623,7 +623,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="3" t="s">
@@ -633,10 +633,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -668,7 +668,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -684,7 +684,7 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -692,7 +692,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -700,7 +700,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">

--- a/TODOLIST.xlsx
+++ b/TODOLIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HES\Semestre 4\RIA\Projet\BFMM_SaveTheKoalas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brice\git\BFMM_SaveTheKoalas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24E364C-82E4-484F-B387-7460E1B0470F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEEB7D1-56F7-4D72-873B-251645FF3AF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>TODOLIST</t>
   </si>
@@ -111,13 +111,49 @@
   </si>
   <si>
     <t>Musique/bruitage (bruit de l'hélico qui marchait pas et bruit de mort et de victoires qui passent en boucle)</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Started - BUG</t>
+  </si>
+  <si>
+    <t>T'es nul Brice</t>
+  </si>
+  <si>
+    <t>Koala x/x</t>
+  </si>
+  <si>
+    <t>En cours</t>
+  </si>
+  <si>
+    <t>Bug des maps (glitch)</t>
+  </si>
+  <si>
+    <t>Hall of fame</t>
+  </si>
+  <si>
+    <t>Save scores</t>
+  </si>
+  <si>
+    <t>Success level indication (enter to restart)</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>Visa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +199,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -190,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -202,16 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -223,12 +265,31 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -276,14 +337,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFDB7351-89C5-4365-88F4-0834D3EB1367}" name="Tableau1" displayName="Tableau1" ref="A2:F9" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A2:F9" xr:uid="{536E52BB-1A47-462D-B67D-63881B891271}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{203DD695-71FD-499A-B0F0-50D9A24A0603}" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{974A2E61-0EC1-4D93-9B96-4FF1DB779A6A}" name="Tâches" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C934C37D-2008-4B4D-B19E-834E24F4EA39}" name="Commentaires" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{464E079D-29B5-4AE8-BCD1-1B125C5F0886}" name="Reponsable 1" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{FEBBDEA9-8EB6-4CCE-B4C5-D1E5B0EA1761}" name="Reponsable 2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFDB7351-89C5-4365-88F4-0834D3EB1367}" name="Tableau1" displayName="Tableau1" ref="A2:G12" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A2:G12" xr:uid="{536E52BB-1A47-462D-B67D-63881B891271}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{203DD695-71FD-499A-B0F0-50D9A24A0603}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{974A2E61-0EC1-4D93-9B96-4FF1DB779A6A}" name="Tâches" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C934C37D-2008-4B4D-B19E-834E24F4EA39}" name="Commentaires" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{E9116AFA-D154-433C-A6FF-8E305BA9AFBE}" name="Visa" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{464E079D-29B5-4AE8-BCD1-1B125C5F0886}" name="Reponsable 1" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{FEBBDEA9-8EB6-4CCE-B4C5-D1E5B0EA1761}" name="Reponsable 2" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{263CF17C-A9F9-4036-8509-DC68EB5EF28D}" name="Etat"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -553,32 +615,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" customWidth="1"/>
-    <col min="4" max="5" width="13.54296875" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -589,16 +653,19 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -606,19 +673,24 @@
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="14">
+        <v>43977</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -626,20 +698,23 @@
         <v>22</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="14">
+        <v>43977</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -647,15 +722,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="4"/>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -663,15 +739,18 @@
         <v>6</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -679,15 +758,22 @@
         <v>7</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="4"/>
+      <c r="G7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -695,32 +781,85 @@
         <v>18</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+      <c r="F8" s="4"/>
+      <c r="G8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
